--- a/docs/32_Channel_Template_layout_BOM_and_wiring.xlsx
+++ b/docs/32_Channel_Template_layout_BOM_and_wiring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NI-Jovian/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B240AE0-1306-4620-AA3B-53C4D039E179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C051C0C-9CCD-7E47-A888-B00FC6F1BA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27345" yWindow="22125" windowWidth="26565" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Wiring List" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Bill of Materials'!$A$1:$K$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Bill of Materials'!$A$1:$K$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'LO Assembly Template'!$A$1:$R$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Rack Layout'!$A$1:$E$37,'Rack Layout'!$G$1:$M$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Wiring List'!$A$2:$E$426,'Wiring List'!$G$2:$H$33</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="431">
   <si>
     <t>ORDERED</t>
   </si>
@@ -1321,6 +1321,21 @@
   </si>
   <si>
     <t>Name Reference</t>
+  </si>
+  <si>
+    <t>Do not mix Servers</t>
+  </si>
+  <si>
+    <t>https://www.trentonsystems.com/products/bam/3u</t>
+  </si>
+  <si>
+    <t>Trenton</t>
+  </si>
+  <si>
+    <t>BAC3000</t>
+  </si>
+  <si>
+    <t>Dual Intel® 3rd Gen Xeon® Scalable Processors</t>
   </si>
 </sst>
 </file>
@@ -2441,6 +2456,30 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2453,9 +2492,6 @@
     <xf numFmtId="0" fontId="28" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2463,9 +2499,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2484,24 +2517,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3244,31 +3259,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="64" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="56.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="14" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="64" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="56.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="15" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="14" max="64" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3306,7 +3321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75">
+    <row r="2" spans="1:13" ht="19">
       <c r="A2" s="90" t="s">
         <v>12</v>
       </c>
@@ -3321,7 +3336,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -3347,7 +3362,7 @@
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -3376,7 +3391,7 @@
       <c r="K4" s="12"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="16">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -3404,7 +3419,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="16">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3430,7 +3445,7 @@
       </c>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="30">
+    <row r="7" spans="1:13" ht="32">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -3458,7 +3473,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="16">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3482,7 +3497,7 @@
       </c>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="16">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3506,7 +3521,7 @@
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="16">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3530,7 +3545,7 @@
       </c>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="16">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3556,7 +3571,7 @@
       </c>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="16">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3586,7 +3601,7 @@
     <row r="13" spans="1:13" ht="8.25" customHeight="1">
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75">
+    <row r="14" spans="1:13" ht="19">
       <c r="A14" s="90" t="s">
         <v>45</v>
       </c>
@@ -3601,7 +3616,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="16">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3622,61 +3637,65 @@
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11">
-        <f t="shared" ref="J15:J20" si="1">I15*H15</f>
+        <f t="shared" ref="J15:J21" si="1">I15*H15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="12" t="s">
+        <v>426</v>
+      </c>
       <c r="L15" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="16">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>52</v>
+        <v>428</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>53</v>
+        <v>429</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>54</v>
+        <v>430</v>
       </c>
       <c r="H16" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="12" t="s">
+        <v>426</v>
+      </c>
       <c r="L16" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H17" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11">
@@ -3685,58 +3704,56 @@
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="46.5" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H18" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="K18" s="12"/>
       <c r="L18" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="44.25" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="46.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H19" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11">
@@ -3747,27 +3764,27 @@
         <v>65</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="44.25" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H20" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11">
@@ -3775,74 +3792,78 @@
         <v>0</v>
       </c>
       <c r="K20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="32">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="9">
+        <v>4</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L21" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="9.75" customHeight="1">
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="1:12" ht="18.75">
-      <c r="A22" s="90" t="s">
+    <row r="22" spans="1:12" ht="9.75" customHeight="1">
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" ht="19">
+      <c r="A23" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9">
-        <v>1</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11">
-        <f>I23*H23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="1:12" ht="16">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11">
@@ -3851,21 +3872,21 @@
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9">
@@ -3878,25 +3899,25 @@
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11">
@@ -3905,82 +3926,80 @@
       </c>
       <c r="K26" s="12"/>
       <c r="L26" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>93</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G27" s="9"/>
       <c r="H27" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="J27" s="11">
+        <f>I27*H27</f>
+        <v>0</v>
+      </c>
       <c r="K27" s="12"/>
       <c r="L27" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="32">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H28" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I28" s="11"/>
-      <c r="J28" s="11">
-        <f>I28*H28</f>
-        <v>0</v>
-      </c>
+      <c r="J28" s="11"/>
       <c r="K28" s="12"/>
       <c r="L28" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="32">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H29" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11">
@@ -3989,24 +4008,24 @@
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="16">
-        <v>3849592</v>
+        <v>101</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H30" s="9">
         <v>1</v>
@@ -4018,27 +4037,27 @@
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="F31" s="16">
+        <v>3849592</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H31" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11">
@@ -4047,27 +4066,27 @@
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H32" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="11">
@@ -4076,71 +4095,71 @@
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="9">
+        <v>2</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11">
+        <f>I33*H33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="9" customHeight="1">
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:12" ht="18.75">
-      <c r="A34" s="90" t="s">
+    <row r="34" spans="1:12" ht="9" customHeight="1">
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="1:12" ht="19">
+      <c r="A35" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9">
-        <v>1</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11">
-        <f>I35*H35</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="1:12" ht="16">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>123</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G36" s="9"/>
       <c r="H36" s="9">
         <v>1</v>
       </c>
@@ -4151,24 +4170,24 @@
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H37" s="9">
         <v>1</v>
@@ -4180,25 +4199,27 @@
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="9"/>
+        <v>126</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="H38" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11">
@@ -4207,25 +4228,25 @@
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>130</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11">
@@ -4234,146 +4255,144 @@
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H40" s="9"/>
+        <v>133</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9">
+        <v>2</v>
+      </c>
       <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
+      <c r="J40" s="11">
+        <f>I40*H40</f>
+        <v>0</v>
+      </c>
       <c r="K40" s="12"/>
-      <c r="L40" s="13"/>
-    </row>
-    <row r="41" spans="1:12" ht="30">
+      <c r="L40" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="16">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="16">
         <v>31610</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H42" s="9">
         <v>2</v>
       </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11">
-        <f>I41*H41</f>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11">
+        <f>I42*H42</f>
         <v>0</v>
       </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="13" t="s">
+      <c r="K42" s="12"/>
+      <c r="L42" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="9" customHeight="1">
-      <c r="L42" s="13"/>
-    </row>
-    <row r="43" spans="1:12" ht="18.75">
-      <c r="A43" s="90" t="s">
+    <row r="43" spans="1:12" ht="9" customHeight="1">
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="19">
+      <c r="A44" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="13"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9">
-        <v>5</v>
-      </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11">
-        <f t="shared" ref="J44:J50" si="2">I44*H44</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="16">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>147</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G45" s="9"/>
       <c r="H45" s="9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J45:J51" si="2">I45*H45</f>
         <v>0</v>
       </c>
       <c r="K45" s="12"/>
       <c r="L45" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H46" s="9">
         <v>12</v>
@@ -4385,27 +4404,27 @@
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="16">
-        <v>91140</v>
+        <v>62</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H47" s="9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="11">
@@ -4414,27 +4433,27 @@
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>158</v>
+        <v>52</v>
+      </c>
+      <c r="F48" s="16">
+        <v>91140</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H48" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="11">
@@ -4443,24 +4462,24 @@
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>157</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H49" s="9">
         <v>4</v>
@@ -4472,27 +4491,27 @@
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" s="16">
-        <v>793869899112</v>
+        <v>157</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H50" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11">
@@ -4501,67 +4520,96 @@
       </c>
       <c r="K50" s="12"/>
       <c r="L50" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51" s="16">
+        <v>793869899112</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H51" s="9">
+        <v>2</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="12"/>
+      <c r="L51" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="K51" s="17"/>
-    </row>
-    <row r="52" spans="1:12" ht="18.75">
-      <c r="I52" s="18" t="s">
+    <row r="52" spans="1:12">
+      <c r="K52" s="17"/>
+    </row>
+    <row r="53" spans="1:12" ht="19">
+      <c r="I53" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="J52" s="19">
-        <f>SUM(J2:J50)</f>
+      <c r="J53" s="19">
+        <f>SUM(J2:J51)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="17"/>
-    </row>
-    <row r="53" spans="1:12">
       <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="20"/>
+      <c r="K54" s="17"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A44:D44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="L15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="L24" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L25" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L35" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L36" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L37" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L38" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L39" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="L41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L44" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L45" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="L46" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L47" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="L48" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="L49" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L50" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L27" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L29" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L30" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L31" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L33" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L36" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L37" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L38" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L39" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L40" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L42" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L45" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L46" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L47" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L48" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L49" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="L50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437000000000002" bottom="1.1437000000000002" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup scale="50" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId31"/>
@@ -4580,24 +4628,24 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" customWidth="1"/>
-    <col min="7" max="1016" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="1016" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1">
       <c r="A1" s="73">
         <v>32</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="108"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="68">
         <v>32</v>
       </c>
@@ -4612,10 +4660,10 @@
       <c r="A2" s="72">
         <v>31</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="109"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="69">
         <v>31</v>
       </c>
@@ -4627,10 +4675,10 @@
       <c r="A3" s="70">
         <v>30</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="95"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="69">
         <v>30</v>
       </c>
@@ -4640,8 +4688,8 @@
       <c r="A4" s="72">
         <v>29</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="69">
         <v>29</v>
       </c>
@@ -4651,8 +4699,8 @@
       <c r="A5" s="72">
         <v>28</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="69">
         <v>28</v>
       </c>
@@ -4662,8 +4710,8 @@
       <c r="A6" s="72">
         <v>27</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="109"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="69">
         <v>27</v>
       </c>
@@ -4673,10 +4721,10 @@
       <c r="A7" s="70">
         <v>26</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="97" t="s">
         <v>390</v>
       </c>
-      <c r="C7" s="111"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="69">
         <v>26</v>
       </c>
@@ -4741,10 +4789,10 @@
       <c r="A12" s="71">
         <v>21</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="C12" s="109"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="69">
         <v>21</v>
       </c>
@@ -4753,42 +4801,42 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A13" s="92">
+      <c r="A13" s="100">
         <v>20</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="102" t="s">
         <v>396</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96">
+      <c r="C13" s="96"/>
+      <c r="D13" s="103">
         <v>20</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="99" t="s">
         <v>171</v>
       </c>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A14" s="93"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="80" t="s">
         <v>397</v>
       </c>
       <c r="C14" s="81" t="s">
         <v>398</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="91"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="99"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A15" s="93"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="82" t="s">
         <v>399</v>
       </c>
       <c r="C15" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="91"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="99"/>
       <c r="G15" t="s">
         <v>172</v>
       </c>
@@ -4849,10 +4897,10 @@
       <c r="A20" s="72">
         <v>15</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="95" t="s">
         <v>405</v>
       </c>
-      <c r="C20" s="95"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="69">
         <v>15</v>
       </c>
@@ -4861,31 +4909,31 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A21" s="100">
+      <c r="A21" s="106">
         <v>14</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="108" t="s">
         <v>406</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103">
+      <c r="C21" s="108"/>
+      <c r="D21" s="109">
         <v>14</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="99" t="s">
         <v>171</v>
       </c>
       <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A22" s="101"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="85" t="s">
         <v>407</v>
       </c>
       <c r="C22" s="86" t="s">
         <v>408</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="91"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="99"/>
       <c r="G22" t="s">
         <v>173</v>
       </c>
@@ -4946,10 +4994,10 @@
       <c r="A27" s="70">
         <v>9</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="97" t="s">
         <v>413</v>
       </c>
-      <c r="C27" s="110"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="71">
         <v>9</v>
       </c>
@@ -4958,45 +5006,45 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A28" s="103">
+      <c r="A28" s="109">
         <v>8</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="108" t="s">
         <v>414</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103">
+      <c r="C28" s="108"/>
+      <c r="D28" s="109">
         <v>8</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="E28" s="99" t="s">
         <v>171</v>
       </c>
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A29" s="105"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="86" t="s">
         <v>415</v>
       </c>
       <c r="C29" s="86" t="s">
         <v>416</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="91"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="99"/>
       <c r="G29" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="104"/>
+      <c r="A30" s="110"/>
       <c r="B30" s="85" t="s">
         <v>417</v>
       </c>
       <c r="C30" s="86" t="s">
         <v>418</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="91"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="99"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1">
       <c r="A31" s="72">
@@ -5054,8 +5102,8 @@
       <c r="A35" s="72">
         <v>3</v>
       </c>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="72">
         <v>3</v>
       </c>
@@ -5065,8 +5113,8 @@
       <c r="A36" s="72">
         <v>2</v>
       </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="71">
         <v>2</v>
       </c>
@@ -5076,10 +5124,10 @@
       <c r="A37" s="71">
         <v>1</v>
       </c>
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="91" t="s">
         <v>423</v>
       </c>
-      <c r="C37" s="106"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="71">
         <v>1</v>
       </c>
@@ -5097,15 +5145,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E28:E30"/>
@@ -5119,6 +5158,15 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="1.1437000000000002" bottom="1.1437000000000002" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5135,23 +5183,22 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="28" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="28" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="28" customWidth="1"/>
-    <col min="12" max="12" width="1.42578125" style="28" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="28" customWidth="1"/>
+    <col min="4" max="5" width="9.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="28" customWidth="1"/>
+    <col min="8" max="9" width="8.5" style="28" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="1.5" style="28" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="28" customWidth="1"/>
     <col min="14" max="14" width="4" style="28" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="28" customWidth="1"/>
-    <col min="16" max="1021" width="9.42578125" style="28" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="28" customWidth="1"/>
+    <col min="16" max="1021" width="9.5" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5935,13 +5982,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="1024" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="49" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="1024" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6358,7 +6405,7 @@
     <row r="48" spans="1:4">
       <c r="C48" s="14"/>
     </row>
-    <row r="49" spans="3:3" ht="16.5">
+    <row r="49" spans="3:3" ht="16">
       <c r="C49" s="53"/>
     </row>
     <row r="64" spans="3:3">
@@ -6389,7 +6436,7 @@
     <row r="71" spans="3:4">
       <c r="C71"/>
     </row>
-    <row r="72" spans="3:4" ht="16.5">
+    <row r="72" spans="3:4" ht="16">
       <c r="C72"/>
       <c r="D72" s="53"/>
     </row>
@@ -6440,16 +6487,16 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6478,7 +6525,7 @@
       </c>
       <c r="H2" s="118"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5">
+    <row r="3" spans="1:8">
       <c r="A3" s="113" t="s">
         <v>273</v>
       </c>
@@ -6495,7 +6542,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5">
+    <row r="4" spans="1:8">
       <c r="A4" s="54" t="s">
         <v>277</v>
       </c>
@@ -6518,7 +6565,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="57" t="s">
         <v>280</v>
       </c>
@@ -6541,7 +6588,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5">
+    <row r="6" spans="1:8">
       <c r="A6" s="57" t="s">
         <v>280</v>
       </c>
@@ -6564,7 +6611,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5">
+    <row r="7" spans="1:8">
       <c r="A7" s="57" t="s">
         <v>280</v>
       </c>
@@ -6587,7 +6634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5">
+    <row r="8" spans="1:8">
       <c r="A8" s="57" t="s">
         <v>280</v>
       </c>
@@ -6608,7 +6655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5">
+    <row r="9" spans="1:8" ht="16">
       <c r="A9" s="57" t="s">
         <v>280</v>
       </c>
@@ -6631,7 +6678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5">
+    <row r="10" spans="1:8">
       <c r="A10" s="57" t="s">
         <v>280</v>
       </c>
@@ -6654,7 +6701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5">
+    <row r="11" spans="1:8">
       <c r="A11" s="57" t="s">
         <v>280</v>
       </c>
@@ -6677,7 +6724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5">
+    <row r="12" spans="1:8">
       <c r="A12" s="57" t="s">
         <v>280</v>
       </c>
@@ -6700,7 +6747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.5">
+    <row r="13" spans="1:8">
       <c r="A13" s="57" t="s">
         <v>280</v>
       </c>
@@ -6723,7 +6770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5">
+    <row r="14" spans="1:8">
       <c r="A14" s="57" t="s">
         <v>280</v>
       </c>
@@ -6746,7 +6793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.5">
+    <row r="15" spans="1:8">
       <c r="A15" s="57" t="s">
         <v>280</v>
       </c>
@@ -6769,7 +6816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.5">
+    <row r="16" spans="1:8">
       <c r="A16" s="57" t="s">
         <v>280</v>
       </c>
@@ -6792,7 +6839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19.5">
+    <row r="17" spans="1:8">
       <c r="A17" s="57" t="s">
         <v>280</v>
       </c>
@@ -6815,7 +6862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19.5">
+    <row r="18" spans="1:8">
       <c r="A18" s="57" t="s">
         <v>280</v>
       </c>
@@ -6838,7 +6885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.5">
+    <row r="19" spans="1:8">
       <c r="A19" s="57" t="s">
         <v>280</v>
       </c>
@@ -6861,7 +6908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.5">
+    <row r="20" spans="1:8">
       <c r="A20" s="57" t="s">
         <v>280</v>
       </c>
@@ -6884,7 +6931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19.5">
+    <row r="21" spans="1:8">
       <c r="A21" s="57" t="s">
         <v>280</v>
       </c>
@@ -6907,7 +6954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="19.5">
+    <row r="22" spans="1:8">
       <c r="A22" s="57" t="s">
         <v>280</v>
       </c>
@@ -6930,7 +6977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19.5">
+    <row r="23" spans="1:8">
       <c r="A23" s="57" t="s">
         <v>280</v>
       </c>
@@ -6953,7 +7000,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19.5">
+    <row r="24" spans="1:8">
       <c r="A24" s="57" t="s">
         <v>280</v>
       </c>
@@ -6976,7 +7023,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19.5">
+    <row r="25" spans="1:8">
       <c r="A25" s="57" t="s">
         <v>280</v>
       </c>
@@ -6999,7 +7046,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19.5">
+    <row r="26" spans="1:8" ht="16">
       <c r="A26" s="57" t="s">
         <v>284</v>
       </c>
@@ -7022,7 +7069,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19.5">
+    <row r="27" spans="1:8">
       <c r="A27" s="57" t="s">
         <v>284</v>
       </c>
@@ -7045,7 +7092,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19.5">
+    <row r="28" spans="1:8">
       <c r="A28" s="57" t="s">
         <v>284</v>
       </c>
@@ -7068,7 +7115,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="19.5">
+    <row r="29" spans="1:8">
       <c r="A29" s="57" t="s">
         <v>284</v>
       </c>
@@ -7089,7 +7136,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19.5">
+    <row r="30" spans="1:8" ht="16">
       <c r="A30" s="57" t="s">
         <v>284</v>
       </c>
@@ -7112,7 +7159,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19.5">
+    <row r="31" spans="1:8">
       <c r="A31" s="57" t="s">
         <v>284</v>
       </c>
@@ -7135,7 +7182,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19.5">
+    <row r="32" spans="1:8">
       <c r="A32" s="57" t="s">
         <v>284</v>
       </c>
@@ -7158,7 +7205,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="19.5">
+    <row r="33" spans="1:8">
       <c r="A33" s="57" t="s">
         <v>284</v>
       </c>
@@ -7181,7 +7228,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.5">
+    <row r="34" spans="1:8">
       <c r="A34" s="57" t="s">
         <v>284</v>
       </c>
@@ -7198,7 +7245,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19.5">
+    <row r="35" spans="1:8">
       <c r="A35" s="57" t="s">
         <v>284</v>
       </c>
@@ -7215,7 +7262,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19.5">
+    <row r="36" spans="1:8">
       <c r="A36" s="57" t="s">
         <v>284</v>
       </c>
@@ -7232,7 +7279,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="19.5">
+    <row r="37" spans="1:8">
       <c r="A37" s="57" t="s">
         <v>284</v>
       </c>
@@ -7249,7 +7296,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="19.5">
+    <row r="38" spans="1:8">
       <c r="A38" s="57" t="s">
         <v>284</v>
       </c>
@@ -7266,7 +7313,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="19.5">
+    <row r="39" spans="1:8">
       <c r="A39" s="57" t="s">
         <v>284</v>
       </c>
@@ -7283,7 +7330,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="19.5">
+    <row r="40" spans="1:8">
       <c r="A40" s="57" t="s">
         <v>284</v>
       </c>
@@ -7300,7 +7347,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="19.5">
+    <row r="41" spans="1:8">
       <c r="A41" s="57" t="s">
         <v>284</v>
       </c>
@@ -7317,7 +7364,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="19.5">
+    <row r="42" spans="1:8">
       <c r="A42" s="57" t="s">
         <v>284</v>
       </c>
@@ -7334,7 +7381,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="19.5">
+    <row r="43" spans="1:8">
       <c r="A43" s="57" t="s">
         <v>284</v>
       </c>
@@ -7351,7 +7398,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="19.5">
+    <row r="44" spans="1:8">
       <c r="A44" s="57" t="s">
         <v>284</v>
       </c>
@@ -7368,7 +7415,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19.5">
+    <row r="45" spans="1:8">
       <c r="A45" s="57" t="s">
         <v>284</v>
       </c>
@@ -7385,7 +7432,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="19.5">
+    <row r="46" spans="1:8">
       <c r="A46" s="57" t="s">
         <v>284</v>
       </c>
@@ -7402,7 +7449,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="19.5">
+    <row r="47" spans="1:8" ht="16">
       <c r="A47" s="57" t="s">
         <v>286</v>
       </c>
@@ -7419,7 +7466,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="19.5">
+    <row r="48" spans="1:8">
       <c r="A48" s="57" t="s">
         <v>286</v>
       </c>
@@ -7436,7 +7483,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="19.5">
+    <row r="49" spans="1:5">
       <c r="A49" s="57" t="s">
         <v>286</v>
       </c>
@@ -7453,7 +7500,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="19.5">
+    <row r="50" spans="1:5">
       <c r="A50" s="57" t="s">
         <v>286</v>
       </c>
@@ -7468,7 +7515,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="1:5" ht="19.5">
+    <row r="51" spans="1:5" ht="16">
       <c r="A51" s="57" t="s">
         <v>286</v>
       </c>
@@ -7485,7 +7532,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="19.5">
+    <row r="52" spans="1:5">
       <c r="A52" s="57" t="s">
         <v>286</v>
       </c>
@@ -7502,7 +7549,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="19.5">
+    <row r="53" spans="1:5">
       <c r="A53" s="57" t="s">
         <v>286</v>
       </c>
@@ -7519,7 +7566,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="19.5">
+    <row r="54" spans="1:5">
       <c r="A54" s="57" t="s">
         <v>286</v>
       </c>
@@ -7536,7 +7583,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="19.5">
+    <row r="55" spans="1:5">
       <c r="A55" s="57" t="s">
         <v>286</v>
       </c>
@@ -7553,7 +7600,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="19.5">
+    <row r="56" spans="1:5">
       <c r="A56" s="57" t="s">
         <v>286</v>
       </c>
@@ -7570,7 +7617,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="19.5">
+    <row r="57" spans="1:5">
       <c r="A57" s="57" t="s">
         <v>286</v>
       </c>
@@ -7587,7 +7634,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="19.5">
+    <row r="58" spans="1:5">
       <c r="A58" s="57" t="s">
         <v>286</v>
       </c>
@@ -7604,7 +7651,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="19.5">
+    <row r="59" spans="1:5">
       <c r="A59" s="57" t="s">
         <v>286</v>
       </c>
@@ -7621,7 +7668,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="19.5">
+    <row r="60" spans="1:5">
       <c r="A60" s="57" t="s">
         <v>286</v>
       </c>
@@ -7638,7 +7685,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="19.5">
+    <row r="61" spans="1:5">
       <c r="A61" s="57" t="s">
         <v>286</v>
       </c>
@@ -7655,7 +7702,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="19.5">
+    <row r="62" spans="1:5">
       <c r="A62" s="57" t="s">
         <v>286</v>
       </c>
@@ -7672,7 +7719,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="19.5">
+    <row r="63" spans="1:5">
       <c r="A63" s="57" t="s">
         <v>286</v>
       </c>
@@ -7689,7 +7736,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="19.5">
+    <row r="64" spans="1:5">
       <c r="A64" s="57" t="s">
         <v>286</v>
       </c>
@@ -7706,7 +7753,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="19.5">
+    <row r="65" spans="1:5">
       <c r="A65" s="57" t="s">
         <v>286</v>
       </c>
@@ -7723,7 +7770,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="19.5">
+    <row r="66" spans="1:5">
       <c r="A66" s="57" t="s">
         <v>286</v>
       </c>
@@ -7740,7 +7787,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="19.5">
+    <row r="67" spans="1:5">
       <c r="A67" s="57" t="s">
         <v>286</v>
       </c>
@@ -7757,10 +7804,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="22.5">
+    <row r="68" spans="1:5" ht="18">
       <c r="C68" s="62"/>
     </row>
-    <row r="69" spans="1:5" ht="19.5">
+    <row r="69" spans="1:5" ht="16">
       <c r="A69" s="57" t="s">
         <v>288</v>
       </c>
@@ -7777,7 +7824,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="19.5">
+    <row r="70" spans="1:5" ht="16">
       <c r="A70" s="57" t="s">
         <v>288</v>
       </c>
@@ -7794,7 +7841,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="19.5">
+    <row r="71" spans="1:5" ht="16">
       <c r="A71" s="57" t="s">
         <v>288</v>
       </c>
@@ -7811,7 +7858,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="19.5">
+    <row r="72" spans="1:5" ht="16">
       <c r="A72" s="57" t="s">
         <v>288</v>
       </c>
@@ -7828,7 +7875,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="19.5">
+    <row r="73" spans="1:5" ht="16">
       <c r="A73" s="57" t="s">
         <v>288</v>
       </c>
@@ -7845,7 +7892,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="19.5">
+    <row r="74" spans="1:5" ht="16">
       <c r="A74" s="57" t="s">
         <v>288</v>
       </c>
@@ -7862,7 +7909,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="19.5">
+    <row r="75" spans="1:5">
       <c r="A75" s="57" t="s">
         <v>288</v>
       </c>
@@ -7879,7 +7926,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="19.5">
+    <row r="76" spans="1:5">
       <c r="A76" s="57" t="s">
         <v>288</v>
       </c>
@@ -7896,7 +7943,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="19.5">
+    <row r="77" spans="1:5">
       <c r="A77" s="57" t="s">
         <v>288</v>
       </c>
@@ -7913,7 +7960,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="19.5">
+    <row r="78" spans="1:5">
       <c r="A78" s="57" t="s">
         <v>288</v>
       </c>
@@ -7930,7 +7977,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="19.5">
+    <row r="79" spans="1:5">
       <c r="A79" s="57" t="s">
         <v>288</v>
       </c>
@@ -7947,7 +7994,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="19.5">
+    <row r="80" spans="1:5">
       <c r="A80" s="57" t="s">
         <v>291</v>
       </c>
@@ -7964,7 +8011,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="19.5">
+    <row r="81" spans="1:5">
       <c r="A81" s="57" t="s">
         <v>291</v>
       </c>
@@ -7981,7 +8028,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="19.5">
+    <row r="82" spans="1:5">
       <c r="A82" s="57" t="s">
         <v>291</v>
       </c>
@@ -7998,7 +8045,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="19.5">
+    <row r="83" spans="1:5">
       <c r="A83" s="57" t="s">
         <v>291</v>
       </c>
@@ -8015,7 +8062,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="19.5">
+    <row r="84" spans="1:5">
       <c r="A84" s="57" t="s">
         <v>291</v>
       </c>
@@ -8032,7 +8079,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="19.5">
+    <row r="85" spans="1:5">
       <c r="A85" s="57" t="s">
         <v>291</v>
       </c>
@@ -8049,7 +8096,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="19.5">
+    <row r="86" spans="1:5">
       <c r="A86" s="57" t="s">
         <v>291</v>
       </c>
@@ -8066,7 +8113,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="19.5">
+    <row r="87" spans="1:5">
       <c r="A87" s="57" t="s">
         <v>291</v>
       </c>
@@ -8083,7 +8130,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="19.5">
+    <row r="88" spans="1:5">
       <c r="A88" s="57" t="s">
         <v>291</v>
       </c>
@@ -8100,7 +8147,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="19.5">
+    <row r="89" spans="1:5">
       <c r="A89" s="57" t="s">
         <v>291</v>
       </c>
@@ -8117,7 +8164,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="19.5">
+    <row r="90" spans="1:5">
       <c r="A90" s="57" t="s">
         <v>291</v>
       </c>
@@ -8134,7 +8181,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="19.5">
+    <row r="91" spans="1:5">
       <c r="A91" s="57" t="s">
         <v>291</v>
       </c>
@@ -8151,7 +8198,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="19.5">
+    <row r="92" spans="1:5" ht="16">
       <c r="A92" s="57" t="s">
         <v>291</v>
       </c>
@@ -8168,7 +8215,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="19.5">
+    <row r="93" spans="1:5" ht="16">
       <c r="A93" s="57" t="s">
         <v>291</v>
       </c>
@@ -8185,7 +8232,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="19.5">
+    <row r="94" spans="1:5" ht="16">
       <c r="A94" s="57" t="s">
         <v>291</v>
       </c>
@@ -8202,7 +8249,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="19.5">
+    <row r="95" spans="1:5" ht="16">
       <c r="A95" s="57" t="s">
         <v>291</v>
       </c>
@@ -8219,7 +8266,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="19.5">
+    <row r="96" spans="1:5">
       <c r="A96" s="57" t="s">
         <v>291</v>
       </c>
@@ -8236,7 +8283,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="19.5">
+    <row r="97" spans="1:5">
       <c r="A97" s="57" t="s">
         <v>291</v>
       </c>
@@ -8253,7 +8300,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="19.5">
+    <row r="98" spans="1:5">
       <c r="A98" s="57" t="s">
         <v>291</v>
       </c>
@@ -8270,7 +8317,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="19.5">
+    <row r="99" spans="1:5">
       <c r="A99" s="57" t="s">
         <v>291</v>
       </c>
@@ -8287,7 +8334,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="19.5">
+    <row r="100" spans="1:5">
       <c r="A100" s="57" t="s">
         <v>291</v>
       </c>
@@ -8304,7 +8351,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="19.5">
+    <row r="101" spans="1:5" ht="16">
       <c r="A101" s="57" t="s">
         <v>293</v>
       </c>
@@ -8321,7 +8368,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="19.5">
+    <row r="102" spans="1:5" ht="16">
       <c r="A102" s="57" t="s">
         <v>293</v>
       </c>
@@ -8338,7 +8385,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="19.5">
+    <row r="103" spans="1:5" ht="16">
       <c r="A103" s="57" t="s">
         <v>293</v>
       </c>
@@ -8355,7 +8402,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="19.5">
+    <row r="104" spans="1:5" ht="16">
       <c r="A104" s="57" t="s">
         <v>293</v>
       </c>
@@ -8372,7 +8419,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="19.5">
+    <row r="105" spans="1:5" ht="16">
       <c r="A105" s="57" t="s">
         <v>293</v>
       </c>
@@ -8389,7 +8436,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="19.5">
+    <row r="106" spans="1:5" ht="16">
       <c r="A106" s="57" t="s">
         <v>293</v>
       </c>
@@ -8406,7 +8453,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="19.5">
+    <row r="107" spans="1:5">
       <c r="A107" s="57" t="s">
         <v>293</v>
       </c>
@@ -8423,7 +8470,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="19.5">
+    <row r="108" spans="1:5">
       <c r="A108" s="57" t="s">
         <v>293</v>
       </c>
@@ -8440,7 +8487,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="19.5">
+    <row r="109" spans="1:5">
       <c r="A109" s="57" t="s">
         <v>293</v>
       </c>
@@ -8457,7 +8504,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="19.5">
+    <row r="110" spans="1:5">
       <c r="A110" s="57" t="s">
         <v>293</v>
       </c>
@@ -8474,7 +8521,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="19.5">
+    <row r="111" spans="1:5">
       <c r="A111" s="57" t="s">
         <v>293</v>
       </c>
@@ -8491,7 +8538,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="19.5">
+    <row r="112" spans="1:5">
       <c r="A112" s="57" t="s">
         <v>295</v>
       </c>
@@ -8508,7 +8555,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="19.5">
+    <row r="113" spans="1:5">
       <c r="A113" s="57" t="s">
         <v>295</v>
       </c>
@@ -8525,7 +8572,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="19.5">
+    <row r="114" spans="1:5">
       <c r="A114" s="57" t="s">
         <v>295</v>
       </c>
@@ -8542,7 +8589,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="19.5">
+    <row r="115" spans="1:5">
       <c r="A115" s="57" t="s">
         <v>295</v>
       </c>
@@ -8559,7 +8606,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="19.5">
+    <row r="116" spans="1:5">
       <c r="A116" s="57" t="s">
         <v>295</v>
       </c>
@@ -8576,7 +8623,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="19.5">
+    <row r="117" spans="1:5">
       <c r="A117" s="57" t="s">
         <v>295</v>
       </c>
@@ -8593,7 +8640,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="19.5">
+    <row r="118" spans="1:5">
       <c r="A118" s="57" t="s">
         <v>295</v>
       </c>
@@ -8610,7 +8657,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="19.5">
+    <row r="119" spans="1:5">
       <c r="A119" s="57" t="s">
         <v>295</v>
       </c>
@@ -8627,7 +8674,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="19.5">
+    <row r="120" spans="1:5">
       <c r="A120" s="57" t="s">
         <v>295</v>
       </c>
@@ -8644,7 +8691,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="19.5">
+    <row r="121" spans="1:5">
       <c r="A121" s="57" t="s">
         <v>295</v>
       </c>
@@ -8661,7 +8708,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="19.5">
+    <row r="122" spans="1:5">
       <c r="A122" s="57" t="s">
         <v>295</v>
       </c>
@@ -8678,7 +8725,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="19.5">
+    <row r="123" spans="1:5">
       <c r="A123" s="57" t="s">
         <v>295</v>
       </c>
@@ -8695,7 +8742,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="19.5">
+    <row r="124" spans="1:5" ht="16">
       <c r="A124" s="57" t="s">
         <v>295</v>
       </c>
@@ -8712,7 +8759,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="19.5">
+    <row r="125" spans="1:5" ht="16">
       <c r="A125" s="57" t="s">
         <v>295</v>
       </c>
@@ -8729,7 +8776,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="19.5">
+    <row r="126" spans="1:5" ht="16">
       <c r="A126" s="57" t="s">
         <v>295</v>
       </c>
@@ -8746,7 +8793,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="19.5">
+    <row r="127" spans="1:5" ht="16">
       <c r="A127" s="57" t="s">
         <v>295</v>
       </c>
@@ -8763,7 +8810,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="19.5">
+    <row r="128" spans="1:5">
       <c r="A128" s="57" t="s">
         <v>295</v>
       </c>
@@ -8780,7 +8827,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="19.5">
+    <row r="129" spans="1:5">
       <c r="A129" s="57" t="s">
         <v>295</v>
       </c>
@@ -8797,7 +8844,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="19.5">
+    <row r="130" spans="1:5">
       <c r="A130" s="57" t="s">
         <v>295</v>
       </c>
@@ -8814,7 +8861,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="19.5">
+    <row r="131" spans="1:5">
       <c r="A131" s="57" t="s">
         <v>295</v>
       </c>
@@ -8831,7 +8878,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="19.5">
+    <row r="132" spans="1:5">
       <c r="A132" s="57" t="s">
         <v>295</v>
       </c>
@@ -8848,11 +8895,11 @@
         <v>283</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="22.5">
+    <row r="133" spans="1:5" ht="18">
       <c r="B133" s="14"/>
       <c r="C133" s="62"/>
     </row>
-    <row r="134" spans="1:5" ht="19.5">
+    <row r="134" spans="1:5" ht="16">
       <c r="A134" s="57" t="s">
         <v>297</v>
       </c>
@@ -8869,7 +8916,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="19.5">
+    <row r="135" spans="1:5" ht="16">
       <c r="A135" s="57" t="s">
         <v>297</v>
       </c>
@@ -8886,7 +8933,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="19.5">
+    <row r="136" spans="1:5" ht="16">
       <c r="A136" s="57" t="s">
         <v>297</v>
       </c>
@@ -8903,7 +8950,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="19.5">
+    <row r="137" spans="1:5" ht="16">
       <c r="A137" s="57" t="s">
         <v>297</v>
       </c>
@@ -8920,7 +8967,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="19.5">
+    <row r="138" spans="1:5" ht="16">
       <c r="A138" s="57" t="s">
         <v>297</v>
       </c>
@@ -8937,7 +8984,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="19.5">
+    <row r="139" spans="1:5" ht="16">
       <c r="A139" s="57" t="s">
         <v>297</v>
       </c>
@@ -8954,7 +9001,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="19.5">
+    <row r="140" spans="1:5">
       <c r="A140" s="57" t="s">
         <v>297</v>
       </c>
@@ -8971,7 +9018,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="19.5">
+    <row r="141" spans="1:5">
       <c r="A141" s="57" t="s">
         <v>297</v>
       </c>
@@ -8988,7 +9035,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="19.5">
+    <row r="142" spans="1:5">
       <c r="A142" s="57" t="s">
         <v>297</v>
       </c>
@@ -9005,7 +9052,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="19.5">
+    <row r="143" spans="1:5">
       <c r="A143" s="57" t="s">
         <v>297</v>
       </c>
@@ -9022,7 +9069,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="19.5">
+    <row r="144" spans="1:5">
       <c r="A144" s="57" t="s">
         <v>297</v>
       </c>
@@ -9039,7 +9086,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="19.5">
+    <row r="145" spans="1:5">
       <c r="A145" s="57" t="s">
         <v>299</v>
       </c>
@@ -9056,7 +9103,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="19.5">
+    <row r="146" spans="1:5">
       <c r="A146" s="57" t="s">
         <v>299</v>
       </c>
@@ -9073,7 +9120,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="19.5">
+    <row r="147" spans="1:5">
       <c r="A147" s="57" t="s">
         <v>299</v>
       </c>
@@ -9090,7 +9137,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="19.5">
+    <row r="148" spans="1:5">
       <c r="A148" s="57" t="s">
         <v>299</v>
       </c>
@@ -9107,7 +9154,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="19.5">
+    <row r="149" spans="1:5">
       <c r="A149" s="57" t="s">
         <v>299</v>
       </c>
@@ -9124,7 +9171,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="19.5">
+    <row r="150" spans="1:5">
       <c r="A150" s="57" t="s">
         <v>299</v>
       </c>
@@ -9141,7 +9188,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="19.5">
+    <row r="151" spans="1:5">
       <c r="A151" s="57" t="s">
         <v>299</v>
       </c>
@@ -9158,7 +9205,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="19.5">
+    <row r="152" spans="1:5">
       <c r="A152" s="57" t="s">
         <v>299</v>
       </c>
@@ -9175,7 +9222,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="19.5">
+    <row r="153" spans="1:5">
       <c r="A153" s="57" t="s">
         <v>299</v>
       </c>
@@ -9192,7 +9239,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="19.5">
+    <row r="154" spans="1:5">
       <c r="A154" s="57" t="s">
         <v>299</v>
       </c>
@@ -9209,7 +9256,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="19.5">
+    <row r="155" spans="1:5">
       <c r="A155" s="57" t="s">
         <v>299</v>
       </c>
@@ -9226,7 +9273,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="19.5">
+    <row r="156" spans="1:5">
       <c r="A156" s="57" t="s">
         <v>299</v>
       </c>
@@ -9243,7 +9290,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="19.5">
+    <row r="157" spans="1:5" ht="16">
       <c r="A157" s="57" t="s">
         <v>299</v>
       </c>
@@ -9260,7 +9307,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="19.5">
+    <row r="158" spans="1:5" ht="16">
       <c r="A158" s="57" t="s">
         <v>299</v>
       </c>
@@ -9277,7 +9324,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="19.5">
+    <row r="159" spans="1:5" ht="16">
       <c r="A159" s="57" t="s">
         <v>299</v>
       </c>
@@ -9294,7 +9341,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="19.5">
+    <row r="160" spans="1:5" ht="16">
       <c r="A160" s="57" t="s">
         <v>299</v>
       </c>
@@ -9311,7 +9358,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="19.5">
+    <row r="161" spans="1:5">
       <c r="A161" s="57" t="s">
         <v>299</v>
       </c>
@@ -9328,7 +9375,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="19.5">
+    <row r="162" spans="1:5">
       <c r="A162" s="57" t="s">
         <v>299</v>
       </c>
@@ -9345,7 +9392,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="19.5">
+    <row r="163" spans="1:5">
       <c r="A163" s="57" t="s">
         <v>299</v>
       </c>
@@ -9362,7 +9409,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="19.5">
+    <row r="164" spans="1:5">
       <c r="A164" s="57" t="s">
         <v>299</v>
       </c>
@@ -9379,7 +9426,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="19.5">
+    <row r="165" spans="1:5">
       <c r="A165" s="57" t="s">
         <v>299</v>
       </c>
@@ -9396,7 +9443,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="19.5">
+    <row r="166" spans="1:5" ht="16">
       <c r="A166" s="57" t="s">
         <v>301</v>
       </c>
@@ -9413,7 +9460,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="19.5">
+    <row r="167" spans="1:5" ht="16">
       <c r="A167" s="57" t="s">
         <v>301</v>
       </c>
@@ -9430,7 +9477,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="19.5">
+    <row r="168" spans="1:5" ht="16">
       <c r="A168" s="57" t="s">
         <v>301</v>
       </c>
@@ -9447,7 +9494,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="19.5">
+    <row r="169" spans="1:5" ht="16">
       <c r="A169" s="57" t="s">
         <v>301</v>
       </c>
@@ -9464,7 +9511,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="19.5">
+    <row r="170" spans="1:5" ht="16">
       <c r="A170" s="57" t="s">
         <v>301</v>
       </c>
@@ -9481,7 +9528,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="19.5">
+    <row r="171" spans="1:5" ht="16">
       <c r="A171" s="57" t="s">
         <v>301</v>
       </c>
@@ -9498,7 +9545,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="19.5">
+    <row r="172" spans="1:5">
       <c r="A172" s="57" t="s">
         <v>301</v>
       </c>
@@ -9515,7 +9562,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="19.5">
+    <row r="173" spans="1:5">
       <c r="A173" s="57" t="s">
         <v>301</v>
       </c>
@@ -9532,7 +9579,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="19.5">
+    <row r="174" spans="1:5">
       <c r="A174" s="57" t="s">
         <v>301</v>
       </c>
@@ -9549,7 +9596,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="19.5">
+    <row r="175" spans="1:5">
       <c r="A175" s="57" t="s">
         <v>301</v>
       </c>
@@ -9566,7 +9613,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="19.5">
+    <row r="176" spans="1:5">
       <c r="A176" s="57" t="s">
         <v>301</v>
       </c>
@@ -9583,7 +9630,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="19.5">
+    <row r="177" spans="1:5">
       <c r="A177" s="57" t="s">
         <v>303</v>
       </c>
@@ -9600,7 +9647,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="19.5">
+    <row r="178" spans="1:5">
       <c r="A178" s="57" t="s">
         <v>303</v>
       </c>
@@ -9617,7 +9664,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="19.5">
+    <row r="179" spans="1:5">
       <c r="A179" s="57" t="s">
         <v>303</v>
       </c>
@@ -9634,7 +9681,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="19.5">
+    <row r="180" spans="1:5">
       <c r="A180" s="57" t="s">
         <v>303</v>
       </c>
@@ -9651,7 +9698,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="19.5">
+    <row r="181" spans="1:5">
       <c r="A181" s="57" t="s">
         <v>303</v>
       </c>
@@ -9668,7 +9715,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="19.5">
+    <row r="182" spans="1:5">
       <c r="A182" s="57" t="s">
         <v>303</v>
       </c>
@@ -9685,7 +9732,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="19.5">
+    <row r="183" spans="1:5">
       <c r="A183" s="57" t="s">
         <v>303</v>
       </c>
@@ -9702,7 +9749,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="19.5">
+    <row r="184" spans="1:5">
       <c r="A184" s="57" t="s">
         <v>303</v>
       </c>
@@ -9719,7 +9766,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="19.5">
+    <row r="185" spans="1:5">
       <c r="A185" s="57" t="s">
         <v>303</v>
       </c>
@@ -9736,7 +9783,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="19.5">
+    <row r="186" spans="1:5">
       <c r="A186" s="57" t="s">
         <v>303</v>
       </c>
@@ -9753,7 +9800,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="19.5">
+    <row r="187" spans="1:5">
       <c r="A187" s="57" t="s">
         <v>303</v>
       </c>
@@ -9770,7 +9817,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="19.5">
+    <row r="188" spans="1:5">
       <c r="A188" s="57" t="s">
         <v>303</v>
       </c>
@@ -9787,7 +9834,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="19.5">
+    <row r="189" spans="1:5" ht="16">
       <c r="A189" s="57" t="s">
         <v>303</v>
       </c>
@@ -9804,7 +9851,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="19.5">
+    <row r="190" spans="1:5" ht="16">
       <c r="A190" s="57" t="s">
         <v>303</v>
       </c>
@@ -9821,7 +9868,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="19.5">
+    <row r="191" spans="1:5" ht="16">
       <c r="A191" s="57" t="s">
         <v>303</v>
       </c>
@@ -9838,7 +9885,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="19.5">
+    <row r="192" spans="1:5" ht="16">
       <c r="A192" s="57" t="s">
         <v>303</v>
       </c>
@@ -9855,7 +9902,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="19.5">
+    <row r="193" spans="1:5">
       <c r="A193" s="57" t="s">
         <v>303</v>
       </c>
@@ -9872,7 +9919,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="19.5">
+    <row r="194" spans="1:5">
       <c r="A194" s="57" t="s">
         <v>303</v>
       </c>
@@ -9889,7 +9936,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="19.5">
+    <row r="195" spans="1:5">
       <c r="A195" s="57" t="s">
         <v>303</v>
       </c>
@@ -9906,7 +9953,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="19.5">
+    <row r="196" spans="1:5">
       <c r="A196" s="57" t="s">
         <v>303</v>
       </c>
@@ -9923,7 +9970,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="19.5">
+    <row r="197" spans="1:5">
       <c r="A197" s="57" t="s">
         <v>303</v>
       </c>
@@ -9940,10 +9987,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="22.5">
+    <row r="198" spans="1:5" ht="18">
       <c r="C198" s="62"/>
     </row>
-    <row r="199" spans="1:5" ht="19.5">
+    <row r="199" spans="1:5" ht="16">
       <c r="A199" s="57" t="s">
         <v>305</v>
       </c>
@@ -9960,7 +10007,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="19.5">
+    <row r="200" spans="1:5" ht="16">
       <c r="A200" s="57" t="s">
         <v>305</v>
       </c>
@@ -9977,7 +10024,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="19.5">
+    <row r="201" spans="1:5" ht="16">
       <c r="A201" s="57" t="s">
         <v>305</v>
       </c>
@@ -9994,7 +10041,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="19.5">
+    <row r="202" spans="1:5" ht="16">
       <c r="A202" s="57" t="s">
         <v>305</v>
       </c>
@@ -10011,7 +10058,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="19.5">
+    <row r="203" spans="1:5" ht="16">
       <c r="A203" s="57" t="s">
         <v>305</v>
       </c>
@@ -10028,7 +10075,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="19.5">
+    <row r="204" spans="1:5" ht="16">
       <c r="A204" s="57" t="s">
         <v>305</v>
       </c>
@@ -10045,7 +10092,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="19.5">
+    <row r="205" spans="1:5">
       <c r="A205" s="57" t="s">
         <v>305</v>
       </c>
@@ -10062,7 +10109,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="19.5">
+    <row r="206" spans="1:5">
       <c r="A206" s="57" t="s">
         <v>305</v>
       </c>
@@ -10079,7 +10126,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="19.5">
+    <row r="207" spans="1:5">
       <c r="A207" s="57" t="s">
         <v>305</v>
       </c>
@@ -10096,7 +10143,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="19.5">
+    <row r="208" spans="1:5">
       <c r="A208" s="57" t="s">
         <v>305</v>
       </c>
@@ -10113,7 +10160,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="19.5">
+    <row r="209" spans="1:5">
       <c r="A209" s="57" t="s">
         <v>305</v>
       </c>
@@ -10130,7 +10177,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="19.5">
+    <row r="210" spans="1:5">
       <c r="A210" s="57" t="s">
         <v>307</v>
       </c>
@@ -10147,7 +10194,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="19.5">
+    <row r="211" spans="1:5">
       <c r="A211" s="57" t="s">
         <v>307</v>
       </c>
@@ -10164,7 +10211,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="19.5">
+    <row r="212" spans="1:5">
       <c r="A212" s="57" t="s">
         <v>307</v>
       </c>
@@ -10181,7 +10228,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="19.5">
+    <row r="213" spans="1:5">
       <c r="A213" s="57" t="s">
         <v>307</v>
       </c>
@@ -10198,7 +10245,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="19.5">
+    <row r="214" spans="1:5">
       <c r="A214" s="57" t="s">
         <v>307</v>
       </c>
@@ -10215,7 +10262,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="19.5">
+    <row r="215" spans="1:5">
       <c r="A215" s="57" t="s">
         <v>307</v>
       </c>
@@ -10232,7 +10279,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="19.5">
+    <row r="216" spans="1:5">
       <c r="A216" s="57" t="s">
         <v>307</v>
       </c>
@@ -10249,7 +10296,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="19.5">
+    <row r="217" spans="1:5">
       <c r="A217" s="57" t="s">
         <v>307</v>
       </c>
@@ -10266,7 +10313,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="19.5">
+    <row r="218" spans="1:5">
       <c r="A218" s="57" t="s">
         <v>307</v>
       </c>
@@ -10283,7 +10330,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="19.5">
+    <row r="219" spans="1:5">
       <c r="A219" s="57" t="s">
         <v>307</v>
       </c>
@@ -10300,7 +10347,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="19.5">
+    <row r="220" spans="1:5">
       <c r="A220" s="57" t="s">
         <v>307</v>
       </c>
@@ -10317,7 +10364,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="19.5">
+    <row r="221" spans="1:5">
       <c r="A221" s="57" t="s">
         <v>307</v>
       </c>
@@ -10334,7 +10381,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="19.5">
+    <row r="222" spans="1:5" ht="16">
       <c r="A222" s="57" t="s">
         <v>307</v>
       </c>
@@ -10351,7 +10398,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="19.5">
+    <row r="223" spans="1:5" ht="16">
       <c r="A223" s="57" t="s">
         <v>307</v>
       </c>
@@ -10368,7 +10415,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="19.5">
+    <row r="224" spans="1:5" ht="16">
       <c r="A224" s="57" t="s">
         <v>307</v>
       </c>
@@ -10385,7 +10432,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="19.5">
+    <row r="225" spans="1:5" ht="16">
       <c r="A225" s="57" t="s">
         <v>307</v>
       </c>
@@ -10402,7 +10449,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="19.5">
+    <row r="226" spans="1:5">
       <c r="A226" s="57" t="s">
         <v>307</v>
       </c>
@@ -10419,7 +10466,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="19.5">
+    <row r="227" spans="1:5">
       <c r="A227" s="57" t="s">
         <v>307</v>
       </c>
@@ -10436,7 +10483,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="19.5">
+    <row r="228" spans="1:5">
       <c r="A228" s="57" t="s">
         <v>307</v>
       </c>
@@ -10453,7 +10500,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="19.5">
+    <row r="229" spans="1:5">
       <c r="A229" s="57" t="s">
         <v>307</v>
       </c>
@@ -10470,7 +10517,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="19.5">
+    <row r="230" spans="1:5">
       <c r="A230" s="57" t="s">
         <v>307</v>
       </c>
@@ -10487,7 +10534,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="19.5">
+    <row r="231" spans="1:5" ht="16">
       <c r="A231" s="57" t="s">
         <v>309</v>
       </c>
@@ -10504,7 +10551,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="19.5">
+    <row r="232" spans="1:5" ht="16">
       <c r="A232" s="57" t="s">
         <v>309</v>
       </c>
@@ -10521,7 +10568,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="19.5">
+    <row r="233" spans="1:5" ht="16">
       <c r="A233" s="57" t="s">
         <v>309</v>
       </c>
@@ -10538,7 +10585,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="19.5">
+    <row r="234" spans="1:5" ht="16">
       <c r="A234" s="57" t="s">
         <v>309</v>
       </c>
@@ -10555,7 +10602,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="19.5">
+    <row r="235" spans="1:5" ht="16">
       <c r="A235" s="57" t="s">
         <v>309</v>
       </c>
@@ -10572,7 +10619,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="19.5">
+    <row r="236" spans="1:5" ht="16">
       <c r="A236" s="57" t="s">
         <v>309</v>
       </c>
@@ -10589,7 +10636,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="19.5">
+    <row r="237" spans="1:5">
       <c r="A237" s="57" t="s">
         <v>309</v>
       </c>
@@ -10606,7 +10653,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="19.5">
+    <row r="238" spans="1:5">
       <c r="A238" s="57" t="s">
         <v>309</v>
       </c>
@@ -10623,7 +10670,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="19.5">
+    <row r="239" spans="1:5">
       <c r="A239" s="57" t="s">
         <v>309</v>
       </c>
@@ -10640,7 +10687,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="19.5">
+    <row r="240" spans="1:5">
       <c r="A240" s="57" t="s">
         <v>309</v>
       </c>
@@ -10657,7 +10704,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="19.5">
+    <row r="241" spans="1:5">
       <c r="A241" s="57" t="s">
         <v>309</v>
       </c>
@@ -10674,7 +10721,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="19.5">
+    <row r="242" spans="1:5" ht="16">
       <c r="A242" s="57" t="s">
         <v>311</v>
       </c>
@@ -10691,7 +10738,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="19.5">
+    <row r="243" spans="1:5" ht="16">
       <c r="A243" s="57" t="s">
         <v>311</v>
       </c>
@@ -10708,7 +10755,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="19.5">
+    <row r="244" spans="1:5" ht="16">
       <c r="A244" s="57" t="s">
         <v>311</v>
       </c>
@@ -10725,7 +10772,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="19.5">
+    <row r="245" spans="1:5" ht="16">
       <c r="A245" s="57" t="s">
         <v>311</v>
       </c>
@@ -10742,7 +10789,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="19.5">
+    <row r="246" spans="1:5" ht="16">
       <c r="A246" s="57" t="s">
         <v>311</v>
       </c>
@@ -10759,7 +10806,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="19.5">
+    <row r="247" spans="1:5" ht="16">
       <c r="A247" s="57" t="s">
         <v>311</v>
       </c>
@@ -10776,7 +10823,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="19.5">
+    <row r="248" spans="1:5">
       <c r="A248" s="57" t="s">
         <v>311</v>
       </c>
@@ -10793,7 +10840,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="19.5">
+    <row r="249" spans="1:5">
       <c r="A249" s="57" t="s">
         <v>311</v>
       </c>
@@ -10810,7 +10857,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="19.5">
+    <row r="250" spans="1:5">
       <c r="A250" s="57" t="s">
         <v>311</v>
       </c>
@@ -10827,7 +10874,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="19.5">
+    <row r="251" spans="1:5">
       <c r="A251" s="57" t="s">
         <v>311</v>
       </c>
@@ -10844,7 +10891,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="19.5">
+    <row r="252" spans="1:5">
       <c r="A252" s="57" t="s">
         <v>311</v>
       </c>
@@ -10861,10 +10908,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="22.5">
+    <row r="253" spans="1:5" ht="18">
       <c r="C253" s="62"/>
     </row>
-    <row r="254" spans="1:5" ht="19.5">
+    <row r="254" spans="1:5" ht="16">
       <c r="A254" s="57" t="s">
         <v>313</v>
       </c>
@@ -10881,7 +10928,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="19.5">
+    <row r="255" spans="1:5" ht="16">
       <c r="A255" s="57" t="s">
         <v>313</v>
       </c>
@@ -10898,7 +10945,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="19.5">
+    <row r="256" spans="1:5" ht="16">
       <c r="A256" s="57" t="s">
         <v>313</v>
       </c>
@@ -10915,7 +10962,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="19.5">
+    <row r="257" spans="1:5" ht="16">
       <c r="A257" s="57" t="s">
         <v>313</v>
       </c>
@@ -10932,7 +10979,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="19.5">
+    <row r="258" spans="1:5" ht="16">
       <c r="A258" s="57" t="s">
         <v>313</v>
       </c>
@@ -10949,7 +10996,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="19.5">
+    <row r="259" spans="1:5" ht="16">
       <c r="A259" s="57" t="s">
         <v>313</v>
       </c>
@@ -10966,7 +11013,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="19.5">
+    <row r="260" spans="1:5">
       <c r="A260" s="57" t="s">
         <v>313</v>
       </c>
@@ -10983,7 +11030,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="19.5">
+    <row r="261" spans="1:5">
       <c r="A261" s="57" t="s">
         <v>313</v>
       </c>
@@ -11000,7 +11047,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="19.5">
+    <row r="262" spans="1:5">
       <c r="A262" s="57" t="s">
         <v>313</v>
       </c>
@@ -11017,7 +11064,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="19.5">
+    <row r="263" spans="1:5">
       <c r="A263" s="57" t="s">
         <v>313</v>
       </c>
@@ -11034,7 +11081,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="19.5">
+    <row r="264" spans="1:5">
       <c r="A264" s="57" t="s">
         <v>313</v>
       </c>
@@ -11051,7 +11098,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="19.5">
+    <row r="265" spans="1:5">
       <c r="A265" s="57" t="s">
         <v>315</v>
       </c>
@@ -11068,7 +11115,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="19.5">
+    <row r="266" spans="1:5">
       <c r="A266" s="57" t="s">
         <v>315</v>
       </c>
@@ -11085,7 +11132,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="19.5">
+    <row r="267" spans="1:5">
       <c r="A267" s="57" t="s">
         <v>315</v>
       </c>
@@ -11102,7 +11149,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="19.5">
+    <row r="268" spans="1:5">
       <c r="A268" s="57" t="s">
         <v>315</v>
       </c>
@@ -11119,7 +11166,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="19.5">
+    <row r="269" spans="1:5">
       <c r="A269" s="57" t="s">
         <v>315</v>
       </c>
@@ -11136,7 +11183,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="19.5">
+    <row r="270" spans="1:5">
       <c r="A270" s="57" t="s">
         <v>315</v>
       </c>
@@ -11153,7 +11200,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="19.5">
+    <row r="271" spans="1:5">
       <c r="A271" s="57" t="s">
         <v>315</v>
       </c>
@@ -11170,7 +11217,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="19.5">
+    <row r="272" spans="1:5">
       <c r="A272" s="57" t="s">
         <v>315</v>
       </c>
@@ -11187,7 +11234,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="19.5">
+    <row r="273" spans="1:5">
       <c r="A273" s="57" t="s">
         <v>315</v>
       </c>
@@ -11204,7 +11251,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="19.5">
+    <row r="274" spans="1:5">
       <c r="A274" s="57" t="s">
         <v>315</v>
       </c>
@@ -11221,7 +11268,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="19.5">
+    <row r="275" spans="1:5">
       <c r="A275" s="57" t="s">
         <v>315</v>
       </c>
@@ -11238,7 +11285,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="19.5">
+    <row r="276" spans="1:5">
       <c r="A276" s="57" t="s">
         <v>315</v>
       </c>
@@ -11255,7 +11302,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="19.5">
+    <row r="277" spans="1:5" ht="16">
       <c r="A277" s="57" t="s">
         <v>315</v>
       </c>
@@ -11272,7 +11319,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="19.5">
+    <row r="278" spans="1:5" ht="16">
       <c r="A278" s="57" t="s">
         <v>315</v>
       </c>
@@ -11289,7 +11336,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="19.5">
+    <row r="279" spans="1:5" ht="16">
       <c r="A279" s="57" t="s">
         <v>315</v>
       </c>
@@ -11306,7 +11353,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="19.5">
+    <row r="280" spans="1:5" ht="16">
       <c r="A280" s="57" t="s">
         <v>315</v>
       </c>
@@ -11323,7 +11370,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="19.5">
+    <row r="281" spans="1:5">
       <c r="A281" s="57" t="s">
         <v>315</v>
       </c>
@@ -11340,7 +11387,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="19.5">
+    <row r="282" spans="1:5">
       <c r="A282" s="57" t="s">
         <v>315</v>
       </c>
@@ -11357,7 +11404,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="19.5">
+    <row r="283" spans="1:5">
       <c r="A283" s="57" t="s">
         <v>315</v>
       </c>
@@ -11374,7 +11421,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="19.5">
+    <row r="284" spans="1:5">
       <c r="A284" s="57" t="s">
         <v>315</v>
       </c>
@@ -11391,7 +11438,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="19.5">
+    <row r="285" spans="1:5">
       <c r="A285" s="57" t="s">
         <v>315</v>
       </c>
@@ -11408,7 +11455,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="19.5">
+    <row r="286" spans="1:5" ht="16">
       <c r="A286" s="57" t="s">
         <v>317</v>
       </c>
@@ -11425,7 +11472,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="19.5">
+    <row r="287" spans="1:5" ht="16">
       <c r="A287" s="57" t="s">
         <v>317</v>
       </c>
@@ -11442,7 +11489,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="19.5">
+    <row r="288" spans="1:5" ht="16">
       <c r="A288" s="57" t="s">
         <v>317</v>
       </c>
@@ -11459,7 +11506,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="19.5">
+    <row r="289" spans="1:5" ht="16">
       <c r="A289" s="57" t="s">
         <v>317</v>
       </c>
@@ -11476,7 +11523,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="19.5">
+    <row r="290" spans="1:5" ht="16">
       <c r="A290" s="57" t="s">
         <v>317</v>
       </c>
@@ -11493,7 +11540,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="19.5">
+    <row r="291" spans="1:5" ht="16">
       <c r="A291" s="57" t="s">
         <v>317</v>
       </c>
@@ -11510,7 +11557,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="19.5">
+    <row r="292" spans="1:5">
       <c r="A292" s="57" t="s">
         <v>317</v>
       </c>
@@ -11527,7 +11574,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="19.5">
+    <row r="293" spans="1:5">
       <c r="A293" s="57" t="s">
         <v>317</v>
       </c>
@@ -11544,7 +11591,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="19.5">
+    <row r="294" spans="1:5">
       <c r="A294" s="57" t="s">
         <v>317</v>
       </c>
@@ -11561,7 +11608,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="19.5">
+    <row r="295" spans="1:5">
       <c r="A295" s="57" t="s">
         <v>317</v>
       </c>
@@ -11578,7 +11625,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="19.5">
+    <row r="296" spans="1:5">
       <c r="A296" s="57" t="s">
         <v>317</v>
       </c>
@@ -11595,7 +11642,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="19.5">
+    <row r="297" spans="1:5" ht="16">
       <c r="A297" s="57" t="s">
         <v>319</v>
       </c>
@@ -11612,7 +11659,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="19.5">
+    <row r="298" spans="1:5" ht="16">
       <c r="A298" s="57" t="s">
         <v>319</v>
       </c>
@@ -11629,7 +11676,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="19.5">
+    <row r="299" spans="1:5" ht="16">
       <c r="A299" s="57" t="s">
         <v>319</v>
       </c>
@@ -11646,7 +11693,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="19.5">
+    <row r="300" spans="1:5" ht="16">
       <c r="A300" s="57" t="s">
         <v>319</v>
       </c>
@@ -11663,7 +11710,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="19.5">
+    <row r="301" spans="1:5" ht="16">
       <c r="A301" s="57" t="s">
         <v>319</v>
       </c>
@@ -11680,7 +11727,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="19.5">
+    <row r="302" spans="1:5" ht="16">
       <c r="A302" s="57" t="s">
         <v>319</v>
       </c>
@@ -11697,7 +11744,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="19.5">
+    <row r="303" spans="1:5">
       <c r="A303" s="57" t="s">
         <v>319</v>
       </c>
@@ -11714,7 +11761,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="19.5">
+    <row r="304" spans="1:5">
       <c r="A304" s="57" t="s">
         <v>319</v>
       </c>
@@ -11731,7 +11778,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="19.5">
+    <row r="305" spans="1:5">
       <c r="A305" s="57" t="s">
         <v>319</v>
       </c>
@@ -11748,7 +11795,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="19.5">
+    <row r="306" spans="1:5">
       <c r="A306" s="57" t="s">
         <v>319</v>
       </c>
@@ -11765,7 +11812,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="19.5">
+    <row r="307" spans="1:5">
       <c r="A307" s="57" t="s">
         <v>319</v>
       </c>
@@ -11782,7 +11829,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="19.5">
+    <row r="309" spans="1:5" ht="16">
       <c r="A309" s="57" t="s">
         <v>321</v>
       </c>
@@ -11799,7 +11846,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="19.5">
+    <row r="310" spans="1:5" ht="16">
       <c r="A310" s="57" t="s">
         <v>321</v>
       </c>
@@ -11816,7 +11863,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="19.5">
+    <row r="311" spans="1:5" ht="16">
       <c r="A311" s="57" t="s">
         <v>321</v>
       </c>
@@ -11833,7 +11880,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="19.5">
+    <row r="312" spans="1:5" ht="16">
       <c r="A312" s="57" t="s">
         <v>321</v>
       </c>
@@ -11850,7 +11897,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="19.5">
+    <row r="313" spans="1:5">
       <c r="A313" s="57" t="s">
         <v>321</v>
       </c>
@@ -11867,7 +11914,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="19.5">
+    <row r="314" spans="1:5" ht="16">
       <c r="A314" s="57" t="s">
         <v>321</v>
       </c>
@@ -11884,7 +11931,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="19.5">
+    <row r="315" spans="1:5" ht="16">
       <c r="A315" s="57" t="s">
         <v>321</v>
       </c>
@@ -11901,7 +11948,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="19.5">
+    <row r="316" spans="1:5" ht="16">
       <c r="A316" s="57" t="s">
         <v>321</v>
       </c>
@@ -11918,7 +11965,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="19.5">
+    <row r="317" spans="1:5" ht="16">
       <c r="A317" s="57" t="s">
         <v>321</v>
       </c>
@@ -11935,7 +11982,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="19.5">
+    <row r="318" spans="1:5" ht="16">
       <c r="A318" s="57" t="s">
         <v>324</v>
       </c>
@@ -11952,7 +11999,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="19.5">
+    <row r="319" spans="1:5" ht="16">
       <c r="A319" s="57" t="s">
         <v>324</v>
       </c>
@@ -11969,7 +12016,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="19.5">
+    <row r="320" spans="1:5" ht="16">
       <c r="A320" s="57" t="s">
         <v>324</v>
       </c>
@@ -11986,7 +12033,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="19.5">
+    <row r="321" spans="1:5" ht="16">
       <c r="A321" s="57" t="s">
         <v>324</v>
       </c>
@@ -12003,7 +12050,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="19.5">
+    <row r="322" spans="1:5">
       <c r="A322" s="57" t="s">
         <v>324</v>
       </c>
@@ -12020,7 +12067,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="19.5">
+    <row r="323" spans="1:5" ht="16">
       <c r="A323" s="57" t="s">
         <v>324</v>
       </c>
@@ -12037,7 +12084,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="19.5">
+    <row r="324" spans="1:5" ht="16">
       <c r="A324" s="57" t="s">
         <v>324</v>
       </c>
@@ -12054,7 +12101,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="19.5">
+    <row r="325" spans="1:5" ht="16">
       <c r="A325" s="57" t="s">
         <v>324</v>
       </c>
@@ -12071,7 +12118,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="19.5">
+    <row r="326" spans="1:5" ht="16">
       <c r="A326" s="57" t="s">
         <v>324</v>
       </c>
@@ -12088,7 +12135,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="19.5">
+    <row r="327" spans="1:5" ht="16">
       <c r="A327" s="57" t="s">
         <v>326</v>
       </c>
@@ -12105,7 +12152,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="19.5">
+    <row r="328" spans="1:5" ht="16">
       <c r="A328" s="57" t="s">
         <v>326</v>
       </c>
@@ -12122,7 +12169,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="19.5">
+    <row r="329" spans="1:5" ht="16">
       <c r="A329" s="57" t="s">
         <v>326</v>
       </c>
@@ -12139,7 +12186,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="19.5">
+    <row r="330" spans="1:5" ht="16">
       <c r="A330" s="57" t="s">
         <v>326</v>
       </c>
@@ -12156,7 +12203,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="19.5">
+    <row r="331" spans="1:5">
       <c r="A331" s="57" t="s">
         <v>326</v>
       </c>
@@ -12173,7 +12220,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="19.5">
+    <row r="332" spans="1:5" ht="16">
       <c r="A332" s="57" t="s">
         <v>326</v>
       </c>
@@ -12190,7 +12237,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="19.5">
+    <row r="333" spans="1:5" ht="16">
       <c r="A333" s="57" t="s">
         <v>326</v>
       </c>
@@ -12207,7 +12254,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="19.5">
+    <row r="334" spans="1:5" ht="16">
       <c r="A334" s="57" t="s">
         <v>326</v>
       </c>
@@ -12224,7 +12271,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="19.5">
+    <row r="335" spans="1:5" ht="16">
       <c r="A335" s="57" t="s">
         <v>326</v>
       </c>
@@ -12241,7 +12288,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="19.5">
+    <row r="336" spans="1:5" ht="16">
       <c r="A336" s="57" t="s">
         <v>327</v>
       </c>
@@ -12258,7 +12305,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="19.5">
+    <row r="337" spans="1:5" ht="16">
       <c r="A337" s="57" t="s">
         <v>327</v>
       </c>
@@ -12275,7 +12322,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="19.5">
+    <row r="338" spans="1:5" ht="16">
       <c r="A338" s="57" t="s">
         <v>327</v>
       </c>
@@ -12292,7 +12339,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="19.5">
+    <row r="339" spans="1:5" ht="16">
       <c r="A339" s="57" t="s">
         <v>327</v>
       </c>
@@ -12309,7 +12356,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="19.5">
+    <row r="340" spans="1:5">
       <c r="A340" s="57" t="s">
         <v>327</v>
       </c>
@@ -12326,7 +12373,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="19.5">
+    <row r="341" spans="1:5" ht="16">
       <c r="A341" s="57" t="s">
         <v>327</v>
       </c>
@@ -12343,7 +12390,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="19.5">
+    <row r="342" spans="1:5" ht="16">
       <c r="A342" s="57" t="s">
         <v>327</v>
       </c>
@@ -12360,7 +12407,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="19.5">
+    <row r="343" spans="1:5" ht="16">
       <c r="A343" s="57" t="s">
         <v>327</v>
       </c>
@@ -12377,7 +12424,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="19.5">
+    <row r="344" spans="1:5" ht="16">
       <c r="A344" s="57" t="s">
         <v>327</v>
       </c>
@@ -12394,11 +12441,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="19.5">
+    <row r="345" spans="1:5">
       <c r="C345" s="56"/>
       <c r="E345" s="14"/>
     </row>
-    <row r="346" spans="1:5" ht="19.5">
+    <row r="346" spans="1:5" ht="16">
       <c r="A346" s="57" t="s">
         <v>328</v>
       </c>
@@ -12415,7 +12462,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="19.5">
+    <row r="347" spans="1:5" ht="16">
       <c r="A347" s="57" t="s">
         <v>328</v>
       </c>
@@ -12432,7 +12479,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="19.5">
+    <row r="348" spans="1:5" ht="16">
       <c r="A348" s="57" t="s">
         <v>328</v>
       </c>
@@ -12449,7 +12496,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="19.5">
+    <row r="349" spans="1:5" ht="16">
       <c r="A349" s="57" t="s">
         <v>328</v>
       </c>
@@ -12466,7 +12513,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="19.5">
+    <row r="350" spans="1:5">
       <c r="A350" s="57" t="s">
         <v>328</v>
       </c>
@@ -12483,7 +12530,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="19.5">
+    <row r="351" spans="1:5" ht="16">
       <c r="A351" s="57" t="s">
         <v>328</v>
       </c>
@@ -12500,7 +12547,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="19.5">
+    <row r="352" spans="1:5" ht="16">
       <c r="A352" s="57" t="s">
         <v>328</v>
       </c>
@@ -12517,7 +12564,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="19.5">
+    <row r="353" spans="1:5" ht="16">
       <c r="A353" s="57" t="s">
         <v>328</v>
       </c>
@@ -12534,7 +12581,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="19.5">
+    <row r="354" spans="1:5" ht="16">
       <c r="A354" s="57" t="s">
         <v>328</v>
       </c>
@@ -12551,7 +12598,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="19.5">
+    <row r="355" spans="1:5" ht="16">
       <c r="A355" s="57" t="s">
         <v>329</v>
       </c>
@@ -12568,7 +12615,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="19.5">
+    <row r="356" spans="1:5" ht="16">
       <c r="A356" s="57" t="s">
         <v>329</v>
       </c>
@@ -12585,7 +12632,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="19.5">
+    <row r="357" spans="1:5" ht="16">
       <c r="A357" s="57" t="s">
         <v>329</v>
       </c>
@@ -12602,7 +12649,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="19.5">
+    <row r="358" spans="1:5" ht="16">
       <c r="A358" s="57" t="s">
         <v>329</v>
       </c>
@@ -12619,7 +12666,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="19.5">
+    <row r="359" spans="1:5">
       <c r="A359" s="57" t="s">
         <v>329</v>
       </c>
@@ -12636,7 +12683,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="19.5">
+    <row r="360" spans="1:5" ht="16">
       <c r="A360" s="57" t="s">
         <v>329</v>
       </c>
@@ -12653,7 +12700,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="19.5">
+    <row r="361" spans="1:5" ht="16">
       <c r="A361" s="57" t="s">
         <v>329</v>
       </c>
@@ -12670,7 +12717,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="19.5">
+    <row r="362" spans="1:5" ht="16">
       <c r="A362" s="57" t="s">
         <v>329</v>
       </c>
@@ -12687,7 +12734,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="19.5">
+    <row r="363" spans="1:5" ht="16">
       <c r="A363" s="57" t="s">
         <v>329</v>
       </c>
@@ -12704,7 +12751,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="19.5">
+    <row r="364" spans="1:5" ht="16">
       <c r="A364" s="57" t="s">
         <v>331</v>
       </c>
@@ -12721,7 +12768,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="19.5">
+    <row r="365" spans="1:5" ht="16">
       <c r="A365" s="57" t="s">
         <v>331</v>
       </c>
@@ -12738,7 +12785,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="19.5">
+    <row r="366" spans="1:5" ht="16">
       <c r="A366" s="57" t="s">
         <v>331</v>
       </c>
@@ -12755,7 +12802,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="19.5">
+    <row r="367" spans="1:5" ht="16">
       <c r="A367" s="57" t="s">
         <v>331</v>
       </c>
@@ -12772,7 +12819,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="19.5">
+    <row r="368" spans="1:5">
       <c r="A368" s="57" t="s">
         <v>331</v>
       </c>
@@ -12789,7 +12836,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="19.5">
+    <row r="369" spans="1:5" ht="16">
       <c r="A369" s="57" t="s">
         <v>331</v>
       </c>
@@ -12806,7 +12853,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="19.5">
+    <row r="370" spans="1:5" ht="16">
       <c r="A370" s="57" t="s">
         <v>331</v>
       </c>
@@ -12823,7 +12870,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="19.5">
+    <row r="371" spans="1:5" ht="16">
       <c r="A371" s="57" t="s">
         <v>331</v>
       </c>
@@ -12840,7 +12887,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="19.5">
+    <row r="372" spans="1:5" ht="16">
       <c r="A372" s="57" t="s">
         <v>331</v>
       </c>
@@ -12857,7 +12904,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="19.5">
+    <row r="373" spans="1:5" ht="16">
       <c r="A373" s="57" t="s">
         <v>333</v>
       </c>
@@ -12874,7 +12921,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="19.5">
+    <row r="374" spans="1:5" ht="16">
       <c r="A374" s="57" t="s">
         <v>333</v>
       </c>
@@ -12891,7 +12938,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="19.5">
+    <row r="375" spans="1:5" ht="16">
       <c r="A375" s="57" t="s">
         <v>333</v>
       </c>
@@ -12908,7 +12955,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="19.5">
+    <row r="376" spans="1:5" ht="16">
       <c r="A376" s="57" t="s">
         <v>333</v>
       </c>
@@ -12925,7 +12972,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="19.5">
+    <row r="377" spans="1:5">
       <c r="A377" s="57" t="s">
         <v>333</v>
       </c>
@@ -12942,7 +12989,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="19.5">
+    <row r="378" spans="1:5" ht="16">
       <c r="A378" s="57" t="s">
         <v>333</v>
       </c>
@@ -12959,7 +13006,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="19.5">
+    <row r="379" spans="1:5" ht="16">
       <c r="A379" s="57" t="s">
         <v>333</v>
       </c>
@@ -12976,7 +13023,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="19.5">
+    <row r="380" spans="1:5" ht="16">
       <c r="A380" s="57" t="s">
         <v>333</v>
       </c>
@@ -12993,7 +13040,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="19.5">
+    <row r="381" spans="1:5" ht="16">
       <c r="A381" s="57" t="s">
         <v>333</v>
       </c>
@@ -13013,7 +13060,7 @@
     <row r="382" spans="1:5">
       <c r="E382" s="14"/>
     </row>
-    <row r="383" spans="1:5" ht="19.5">
+    <row r="383" spans="1:5">
       <c r="A383" s="57" t="s">
         <v>334</v>
       </c>
@@ -13030,7 +13077,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="19.5">
+    <row r="384" spans="1:5">
       <c r="A384" s="57" t="s">
         <v>334</v>
       </c>
@@ -13047,7 +13094,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="19.5">
+    <row r="385" spans="1:5" ht="16">
       <c r="A385" s="57" t="s">
         <v>334</v>
       </c>
@@ -13064,7 +13111,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="19.5">
+    <row r="386" spans="1:5">
       <c r="A386" s="57" t="s">
         <v>334</v>
       </c>
@@ -13081,7 +13128,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="19.5">
+    <row r="387" spans="1:5">
       <c r="A387" s="57" t="s">
         <v>334</v>
       </c>
@@ -13098,7 +13145,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="19.5">
+    <row r="388" spans="1:5">
       <c r="A388" s="57" t="s">
         <v>336</v>
       </c>
@@ -13115,7 +13162,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="19.5">
+    <row r="389" spans="1:5">
       <c r="A389" s="57" t="s">
         <v>336</v>
       </c>
@@ -13132,7 +13179,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="19.5">
+    <row r="390" spans="1:5">
       <c r="A390" s="57" t="s">
         <v>336</v>
       </c>
@@ -13149,7 +13196,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="19.5">
+    <row r="391" spans="1:5">
       <c r="A391" s="57" t="s">
         <v>336</v>
       </c>
@@ -13166,7 +13213,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="19.5">
+    <row r="392" spans="1:5">
       <c r="A392" s="57" t="s">
         <v>336</v>
       </c>
@@ -13183,7 +13230,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="19.5">
+    <row r="394" spans="1:5">
       <c r="A394" s="57" t="s">
         <v>337</v>
       </c>
@@ -13200,7 +13247,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="19.5">
+    <row r="395" spans="1:5">
       <c r="A395" s="57" t="s">
         <v>337</v>
       </c>
@@ -13217,7 +13264,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="19.5">
+    <row r="396" spans="1:5">
       <c r="A396" s="57" t="s">
         <v>337</v>
       </c>
@@ -13234,7 +13281,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="19.5">
+    <row r="397" spans="1:5">
       <c r="A397" s="57" t="s">
         <v>337</v>
       </c>
@@ -13251,7 +13298,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="19.5">
+    <row r="398" spans="1:5">
       <c r="A398" s="57" t="s">
         <v>337</v>
       </c>
@@ -13268,7 +13315,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="19.5">
+    <row r="399" spans="1:5">
       <c r="A399" s="57" t="s">
         <v>337</v>
       </c>
@@ -13285,7 +13332,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="19.5">
+    <row r="400" spans="1:5">
       <c r="A400" s="57" t="s">
         <v>337</v>
       </c>
@@ -13302,7 +13349,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="19.5">
+    <row r="401" spans="1:5">
       <c r="A401" s="57" t="s">
         <v>337</v>
       </c>
@@ -13319,7 +13366,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="19.5">
+    <row r="402" spans="1:5">
       <c r="A402" s="57" t="s">
         <v>337</v>
       </c>
@@ -13336,7 +13383,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="19.5">
+    <row r="403" spans="1:5">
       <c r="A403" s="57" t="s">
         <v>337</v>
       </c>
@@ -13353,7 +13400,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="19.5">
+    <row r="404" spans="1:5">
       <c r="A404" s="57" t="s">
         <v>337</v>
       </c>
@@ -13370,7 +13417,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="19.5">
+    <row r="405" spans="1:5">
       <c r="A405" s="57" t="s">
         <v>337</v>
       </c>
@@ -13387,7 +13434,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="19.5">
+    <row r="406" spans="1:5">
       <c r="A406" s="57" t="s">
         <v>337</v>
       </c>
@@ -13404,7 +13451,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="19.5">
+    <row r="407" spans="1:5">
       <c r="A407" s="57" t="s">
         <v>337</v>
       </c>
@@ -13421,7 +13468,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="19.5">
+    <row r="408" spans="1:5">
       <c r="A408" s="57" t="s">
         <v>337</v>
       </c>
@@ -13438,7 +13485,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="19.5">
+    <row r="409" spans="1:5">
       <c r="A409" s="57" t="s">
         <v>337</v>
       </c>
@@ -13455,7 +13502,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="19.5">
+    <row r="411" spans="1:5">
       <c r="A411" s="57" t="s">
         <v>46</v>
       </c>
@@ -13472,7 +13519,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="19.5">
+    <row r="412" spans="1:5">
       <c r="A412" s="57" t="s">
         <v>46</v>
       </c>
@@ -13489,7 +13536,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="19.5">
+    <row r="413" spans="1:5">
       <c r="A413" s="57" t="s">
         <v>46</v>
       </c>
@@ -13506,7 +13553,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="19.5">
+    <row r="414" spans="1:5">
       <c r="A414" s="57" t="s">
         <v>46</v>
       </c>
@@ -13523,7 +13570,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="19.5">
+    <row r="415" spans="1:5">
       <c r="A415" s="57" t="s">
         <v>46</v>
       </c>
@@ -13540,7 +13587,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="19.5">
+    <row r="416" spans="1:5">
       <c r="A416" s="57" t="s">
         <v>46</v>
       </c>
@@ -13557,7 +13604,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="19.5">
+    <row r="417" spans="1:5">
       <c r="A417" s="57" t="s">
         <v>46</v>
       </c>
@@ -13574,7 +13621,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="19.5">
+    <row r="418" spans="1:5">
       <c r="A418" s="57" t="s">
         <v>46</v>
       </c>
@@ -13591,7 +13638,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="19.5">
+    <row r="419" spans="1:5">
       <c r="A419" s="57" t="s">
         <v>46</v>
       </c>
@@ -13608,7 +13655,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="19.5">
+    <row r="420" spans="1:5">
       <c r="A420" s="57" t="s">
         <v>46</v>
       </c>
@@ -13625,7 +13672,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="19.5">
+    <row r="421" spans="1:5">
       <c r="A421" s="57" t="s">
         <v>46</v>
       </c>
@@ -13642,7 +13689,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="19.5">
+    <row r="422" spans="1:5">
       <c r="A422" s="57" t="s">
         <v>46</v>
       </c>
@@ -13659,7 +13706,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="19.5">
+    <row r="423" spans="1:5">
       <c r="A423" s="57" t="s">
         <v>46</v>
       </c>
@@ -13676,7 +13723,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="19.5">
+    <row r="424" spans="1:5">
       <c r="A424" s="57" t="s">
         <v>46</v>
       </c>
@@ -13693,7 +13740,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="19.5">
+    <row r="425" spans="1:5">
       <c r="A425" s="57" t="s">
         <v>46</v>
       </c>
@@ -13710,7 +13757,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="19.5">
+    <row r="426" spans="1:5">
       <c r="A426" s="57" t="s">
         <v>46</v>
       </c>
